--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H2">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I2">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J2">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N2">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O2">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P2">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q2">
-        <v>6.264735142083858</v>
+        <v>6.624805837836</v>
       </c>
       <c r="R2">
-        <v>6.264735142083858</v>
+        <v>26.499223351344</v>
       </c>
       <c r="S2">
-        <v>0.08121646117390147</v>
+        <v>0.06922895739333365</v>
       </c>
       <c r="T2">
-        <v>0.08121646117390147</v>
+        <v>0.04899830747783067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H3">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I3">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J3">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N3">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O3">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P3">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q3">
-        <v>0.2248028528046283</v>
+        <v>0.260942058442</v>
       </c>
       <c r="R3">
-        <v>0.2248028528046283</v>
+        <v>1.565652350652</v>
       </c>
       <c r="S3">
-        <v>0.002914359785770011</v>
+        <v>0.002726834127400006</v>
       </c>
       <c r="T3">
-        <v>0.002914359785770011</v>
+        <v>0.002894964666077439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H4">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I4">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J4">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N4">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O4">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P4">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q4">
-        <v>0.3634684554495358</v>
+        <v>0.37218403341</v>
       </c>
       <c r="R4">
-        <v>0.3634684554495358</v>
+        <v>2.23310420046</v>
       </c>
       <c r="S4">
-        <v>0.004712030282278773</v>
+        <v>0.003889308339312239</v>
       </c>
       <c r="T4">
-        <v>0.004712030282278773</v>
+        <v>0.004129114457183696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H5">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I5">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J5">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N5">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O5">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P5">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q5">
-        <v>0.3713644005895302</v>
+        <v>0.453474164722</v>
       </c>
       <c r="R5">
-        <v>0.3713644005895302</v>
+        <v>2.720844988332</v>
       </c>
       <c r="S5">
-        <v>0.004814393863076589</v>
+        <v>0.00473878697685299</v>
       </c>
       <c r="T5">
-        <v>0.004814393863076589</v>
+        <v>0.005030970061658215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H6">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I6">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J6">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N6">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O6">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P6">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q6">
-        <v>5.769058052104912</v>
+        <v>6.281768177914</v>
       </c>
       <c r="R6">
-        <v>5.769058052104912</v>
+        <v>37.690609067484</v>
       </c>
       <c r="S6">
-        <v>0.07479046897789671</v>
+        <v>0.06564422749718829</v>
       </c>
       <c r="T6">
-        <v>0.07479046897789671</v>
+        <v>0.06969170483336554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H7">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I7">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J7">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.6180693627074</v>
+        <v>13.9020255</v>
       </c>
       <c r="N7">
-        <v>12.6180693627074</v>
+        <v>27.804051</v>
       </c>
       <c r="O7">
-        <v>0.2710857412393206</v>
+        <v>0.2774485042540479</v>
       </c>
       <c r="P7">
-        <v>0.2710857412393206</v>
+        <v>0.2331036721985539</v>
       </c>
       <c r="Q7">
-        <v>4.832301279724915</v>
+        <v>5.373160659801</v>
       </c>
       <c r="R7">
-        <v>4.832301279724915</v>
+        <v>21.492642639204</v>
       </c>
       <c r="S7">
-        <v>0.0626462891669554</v>
+        <v>0.05614931508791312</v>
       </c>
       <c r="T7">
-        <v>0.0626462891669554</v>
+        <v>0.03974090480253414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J8">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N8">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O8">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P8">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q8">
-        <v>8.548474366648572</v>
+        <v>11.88039509152333</v>
       </c>
       <c r="R8">
-        <v>8.548474366648572</v>
+        <v>71.28237054914001</v>
       </c>
       <c r="S8">
-        <v>0.1108230149796989</v>
+        <v>0.124149655965721</v>
       </c>
       <c r="T8">
-        <v>0.1108230149796989</v>
+        <v>0.1318044481382236</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J9">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N9">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O9">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P9">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q9">
-        <v>0.306752221947983</v>
+        <v>0.4679525447494445</v>
       </c>
       <c r="R9">
-        <v>0.306752221947983</v>
+        <v>4.211572902745</v>
       </c>
       <c r="S9">
-        <v>0.003976757094883244</v>
+        <v>0.004890085472020942</v>
       </c>
       <c r="T9">
-        <v>0.003976757094883244</v>
+        <v>0.007787395929229492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H10">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I10">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J10">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N10">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O10">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P10">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q10">
-        <v>0.4959668212664742</v>
+        <v>0.6674449745250001</v>
       </c>
       <c r="R10">
-        <v>0.4959668212664742</v>
+        <v>6.007004770725</v>
       </c>
       <c r="S10">
-        <v>0.006429748292524502</v>
+        <v>0.006974773425039624</v>
       </c>
       <c r="T10">
-        <v>0.006429748292524502</v>
+        <v>0.01110723370546825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H11">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I11">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J11">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N11">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O11">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P11">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q11">
-        <v>0.5067411450166166</v>
+        <v>0.8132241717827778</v>
       </c>
       <c r="R11">
-        <v>0.5067411450166166</v>
+        <v>7.319017546045001</v>
       </c>
       <c r="S11">
-        <v>0.006569427373392622</v>
+        <v>0.008498160235586465</v>
       </c>
       <c r="T11">
-        <v>0.006569427373392622</v>
+        <v>0.01353320689447912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H12">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I12">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J12">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N12">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O12">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P12">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q12">
-        <v>7.872103729787056</v>
+        <v>11.26521888396278</v>
       </c>
       <c r="R12">
-        <v>7.872103729787056</v>
+        <v>101.386969955665</v>
       </c>
       <c r="S12">
-        <v>0.1020544991012195</v>
+        <v>0.1177210890755985</v>
       </c>
       <c r="T12">
-        <v>0.1020544991012195</v>
+        <v>0.1874692651277757</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H13">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I13">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J13">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.6180693627074</v>
+        <v>13.9020255</v>
       </c>
       <c r="N13">
-        <v>12.6180693627074</v>
+        <v>27.804051</v>
       </c>
       <c r="O13">
-        <v>0.2710857412393206</v>
+        <v>0.2774485042540479</v>
       </c>
       <c r="P13">
-        <v>0.2710857412393206</v>
+        <v>0.2331036721985539</v>
       </c>
       <c r="Q13">
-        <v>6.593862738770285</v>
+        <v>9.635795084602501</v>
       </c>
       <c r="R13">
-        <v>6.593862738770285</v>
+        <v>57.814770507615</v>
       </c>
       <c r="S13">
-        <v>0.08548329417981386</v>
+        <v>0.1006936752097691</v>
       </c>
       <c r="T13">
-        <v>0.08548329417981386</v>
+        <v>0.1069022236815352</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H14">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I14">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J14">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N14">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O14">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P14">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q14">
-        <v>12.29582427830999</v>
+        <v>0.3665249850393333</v>
       </c>
       <c r="R14">
-        <v>12.29582427830999</v>
+        <v>2.199149910236</v>
       </c>
       <c r="S14">
-        <v>0.1594039193121104</v>
+        <v>0.003830171509021727</v>
       </c>
       <c r="T14">
-        <v>0.1594039193121104</v>
+        <v>0.004066331381222238</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H15">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I15">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J15">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N15">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O15">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P15">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q15">
-        <v>0.4412215860140978</v>
+        <v>0.01443691881811111</v>
       </c>
       <c r="R15">
-        <v>0.4412215860140978</v>
+        <v>0.129932269363</v>
       </c>
       <c r="S15">
-        <v>0.005720027263224646</v>
+        <v>0.0001508652271802283</v>
       </c>
       <c r="T15">
-        <v>0.005720027263224646</v>
+        <v>0.0002402508632471938</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H16">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I16">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J16">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N16">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O16">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P16">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q16">
-        <v>0.7133811976973137</v>
+        <v>0.020591508735</v>
       </c>
       <c r="R16">
-        <v>0.7133811976973137</v>
+        <v>0.185323578615</v>
       </c>
       <c r="S16">
-        <v>0.009248323357801683</v>
+        <v>0.0002151804469103389</v>
       </c>
       <c r="T16">
-        <v>0.009248323357801683</v>
+        <v>0.0003426719933438782</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H17">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I17">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J17">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N17">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O17">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P17">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q17">
-        <v>0.7288786052892734</v>
+        <v>0.02508897853144444</v>
       </c>
       <c r="R17">
-        <v>0.7288786052892734</v>
+        <v>0.225800806783</v>
       </c>
       <c r="S17">
-        <v>0.009449232825391698</v>
+        <v>0.0002621788273213732</v>
       </c>
       <c r="T17">
-        <v>0.009449232825391698</v>
+        <v>0.0004175162876588428</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.7516506306323441</v>
+        <v>0.02138366666666667</v>
       </c>
       <c r="H18">
-        <v>0.7516506306323441</v>
+        <v>0.064151</v>
       </c>
       <c r="I18">
-        <v>0.4535692557285884</v>
+        <v>0.011196763513816</v>
       </c>
       <c r="J18">
-        <v>0.4535692557285884</v>
+        <v>0.01414849758089826</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N18">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O18">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P18">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q18">
-        <v>11.32295658974273</v>
+        <v>0.3475460328634444</v>
       </c>
       <c r="R18">
-        <v>11.32295658974273</v>
+        <v>3.127914295771</v>
       </c>
       <c r="S18">
-        <v>0.1467915950775086</v>
+        <v>0.003631842213987789</v>
       </c>
       <c r="T18">
-        <v>0.1467915950775086</v>
+        <v>0.005783660313226364</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.064151</v>
+      </c>
+      <c r="I19">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J19">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13.9020255</v>
+      </c>
+      <c r="N19">
+        <v>27.804051</v>
+      </c>
+      <c r="O19">
+        <v>0.2774485042540479</v>
+      </c>
+      <c r="P19">
+        <v>0.2331036721985539</v>
+      </c>
+      <c r="Q19">
+        <v>0.2972762792835</v>
+      </c>
+      <c r="R19">
+        <v>1.783657675701</v>
+      </c>
+      <c r="S19">
+        <v>0.003106525289394548</v>
+      </c>
+      <c r="T19">
+        <v>0.00329806674219974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8088005</v>
+      </c>
+      <c r="H20">
+        <v>1.617601</v>
+      </c>
+      <c r="I20">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J20">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.140418</v>
+      </c>
+      <c r="N20">
+        <v>34.280836</v>
+      </c>
+      <c r="O20">
+        <v>0.342078450107084</v>
+      </c>
+      <c r="P20">
+        <v>0.2874037584536291</v>
+      </c>
+      <c r="Q20">
+        <v>13.863178648609</v>
+      </c>
+      <c r="R20">
+        <v>55.452714594436</v>
+      </c>
+      <c r="S20">
+        <v>0.1448696652390077</v>
+      </c>
+      <c r="T20">
+        <v>0.1025346714563526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8088005</v>
+      </c>
+      <c r="H21">
+        <v>1.617601</v>
+      </c>
+      <c r="I21">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J21">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6751376666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.025413</v>
+      </c>
+      <c r="O21">
+        <v>0.01347400317905004</v>
+      </c>
+      <c r="P21">
+        <v>0.01698066256671337</v>
+      </c>
+      <c r="Q21">
+        <v>0.5460516823688333</v>
+      </c>
+      <c r="R21">
+        <v>3.276310094213</v>
+      </c>
+      <c r="S21">
+        <v>0.005706218352448859</v>
+      </c>
+      <c r="T21">
+        <v>0.006058051108159248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8088005</v>
+      </c>
+      <c r="H22">
+        <v>1.617601</v>
+      </c>
+      <c r="I22">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J22">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.962955</v>
+      </c>
+      <c r="N22">
+        <v>2.888865</v>
+      </c>
+      <c r="O22">
+        <v>0.01921809339322221</v>
+      </c>
+      <c r="P22">
+        <v>0.0242196736002921</v>
+      </c>
+      <c r="Q22">
+        <v>0.7788384854775</v>
+      </c>
+      <c r="R22">
+        <v>4.673030912865</v>
+      </c>
+      <c r="S22">
+        <v>0.008138831181960012</v>
+      </c>
+      <c r="T22">
+        <v>0.008640653444296282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8088005</v>
+      </c>
+      <c r="H23">
+        <v>1.617601</v>
+      </c>
+      <c r="I23">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J23">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.173277666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.519833</v>
+      </c>
+      <c r="O23">
+        <v>0.02341559031749338</v>
+      </c>
+      <c r="P23">
+        <v>0.02950958469417469</v>
+      </c>
+      <c r="Q23">
+        <v>0.9489475634388334</v>
+      </c>
+      <c r="R23">
+        <v>5.693685380633001</v>
+      </c>
+      <c r="S23">
+        <v>0.009916464277732554</v>
+      </c>
+      <c r="T23">
+        <v>0.01052789145037851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="H19">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="I19">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="J19">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>12.6180693627074</v>
-      </c>
-      <c r="N19">
-        <v>12.6180693627074</v>
-      </c>
-      <c r="O19">
-        <v>0.2710857412393206</v>
-      </c>
-      <c r="P19">
-        <v>0.2710857412393206</v>
-      </c>
-      <c r="Q19">
-        <v>9.484379793841677</v>
-      </c>
-      <c r="R19">
-        <v>9.484379793841677</v>
-      </c>
-      <c r="S19">
-        <v>0.1229561578925514</v>
-      </c>
-      <c r="T19">
-        <v>0.1229561578925514</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8088005</v>
+      </c>
+      <c r="H24">
+        <v>1.617601</v>
+      </c>
+      <c r="I24">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J24">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>16.25287366666667</v>
+      </c>
+      <c r="N24">
+        <v>48.758621</v>
+      </c>
+      <c r="O24">
+        <v>0.3243653587491024</v>
+      </c>
+      <c r="P24">
+        <v>0.4087826484866369</v>
+      </c>
+      <c r="Q24">
+        <v>13.14533234803683</v>
+      </c>
+      <c r="R24">
+        <v>78.871994088221</v>
+      </c>
+      <c r="S24">
+        <v>0.1373681999623279</v>
+      </c>
+      <c r="T24">
+        <v>0.1458380182122692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8088005</v>
+      </c>
+      <c r="H25">
+        <v>1.617601</v>
+      </c>
+      <c r="I25">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J25">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.9020255</v>
+      </c>
+      <c r="N25">
+        <v>27.804051</v>
+      </c>
+      <c r="O25">
+        <v>0.2774485042540479</v>
+      </c>
+      <c r="P25">
+        <v>0.2331036721985539</v>
+      </c>
+      <c r="Q25">
+        <v>11.24396517541275</v>
+      </c>
+      <c r="R25">
+        <v>44.975860701651</v>
+      </c>
+      <c r="S25">
+        <v>0.1174989886669711</v>
+      </c>
+      <c r="T25">
+        <v>0.08316247697228478</v>
       </c>
     </row>
   </sheetData>
